--- a/scholar_fields.xlsx
+++ b/scholar_fields.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B411"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4999,6 +4999,749 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>DtqQ8kgAAAAJ</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Comparative physiology</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>gAYL31cAAAAJ</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Developmental biology | physiology | neuroscience</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>kBqFcdAAAAAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>-DHZ-BMAAAAJ</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Evolution | Ecology | Genetics/Genomics | Fish</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>4T2FMrgAAAAJ</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>animal welfare | social behavior | animal personality | precision livestock farming</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>0sXoS44AAAAJ</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>toxicology | physiology | pharmacology | molecular biology | metabolism</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>O17cHX0AAAAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>9I87lFkAAAAJ</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Reproductive Physiology</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>T-2je90AAAAJ</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Marine Mammal Ecology</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>mZ68FaQAAAAJ</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Parasitology | Arthropods | Genomics</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>_3VcPE0AAAAJ</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>physiology | evolution | carryover effects | fetal programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>UGaV_2QAAAAJ</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Musculoskeletal disease | Preclinical Imaging | Objective measurement of animal pain | drug development</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>jfGWJdAAAAAJ</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>biology | neuroscience | stress | life course health</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ScMq2UkAAAAJ</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Biology | Ecological Physiology | Comparative Physiology | Migration | Animal Energetics</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>UTqnX-sAAAAJ</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Vertebrate paleontology | Evolutionary developmental biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>-Udc0ekAAAAJ</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Evolutionary Physiology | Behavioural ecology | Quantitative Genetics | Energetics | Personality</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>iPFpoPIAAAAJ</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Arctic | Ecology | Ecotoxicology | Environmental chemistry | Wildlife</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>TzNE64UAAAAJ</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>stress | ecophysiology | hormones | neuroscience | microbiome</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>yHv0N68AAAAJ</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>insect molecular physiology and neuroendocrinology</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>xhf9FkoAAAAJ</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>genomics | behavior | social insects | neuroscience | evolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Y11pVRYAAAAJ</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Sexual selection | evolutionary biology | animal behaviour | behavioural ecology</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>ErzXye8AAAAJ</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Marine evolutionary ecology | Molecular ecology</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>gXBATE4AAAAJ</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>ecophysiology | foraging | predator avoidance | social behaviour | fishing-induced evolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>ekF5Q_UAAAAJ</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Animal welfare | Animal behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>QL99sHsAAAAJ</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>learning health systems | artificial intelligence | multimorbidity | patient reported outcome | ehealth</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>IXlyPYkAAAAJ</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>environmental toxicology | exposure science | ecotoxicology | environmental health | mercury</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>w2cncq4AAAAJ</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>fish health and disease | aquaculture | biosecurity</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>3RkQotcAAAAJ</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Toxicology | Animal Physiology | Genomics</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>GzeHDMwAAAAJ</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>ecotoxicology | birds | pesticides | agroecosystems | rivers and wetlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>ei5sM98AAAAJ</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>social organization | insect communication | evolution of cooperation | honey bees</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>l3u-vkoAAAAJ</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Evolutionary physiology</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>_rT27wwAAAAJ</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Reproductive endocrinology | metabolism | transcription</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>od8jUdcAAAAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>XCWmQ6gAAAAJ</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Evolutionary Ecology | Reintroduction Biology | Species at Risk | Reproductive Ecology</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>o8U1CKwAAAAJ</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Virology | oncolytic immunotherapy | viral vectored vaccines | gene therapy</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>fjeFgDwAAAAJ</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>aquaporin | ion transport | ammonia | insect | septate junctions</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>UawkFg4AAAAJ</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>fish health | environmental impacts | environmental monitoring | sculpin | water quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>6yGqzVoAAAAJ</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Stem cells and regeneration | muscle satellite cells | myogenesis and adipogenesis | brown adipocytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>AWK2FDoAAAAJ</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>energetics | ecology | behaviour | hibernation | bats</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>CAlipoMAAAAJ</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Fisheries | Fish Ecology | Conservation Science | Conservation Physiology | Freshwater Ecology</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>_uWapBgAAAAJ</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Neuroscience  Synaptic Transmission  Exocytosis  Addiction  Stxbp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>4YaeoLQAAAAJ</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Origins &amp; Evolution of Animal Body Plan Diversity</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>6ncgZ2AAAAAJ</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Wildlife Biology | Traditional Food Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>FuVV0UYAAAAJ</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Biological psychiatry</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>OnCLeigAAAAJ</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Animal Behaviour | Animal Welfare | Applied Ethology</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>V3M92AQAAAAJ</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>neuromuscular control</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>oc7XRMYAAAAJ</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>vertebrate paleontology | evolution | developmental evolution | Archosauria</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>l2C58-wAAAAJ</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>synaptic physiology | GPCRs | optogenetics</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Ao3Hw_YAAAAJ</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>conservation | physiology | policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>8P90kTYAAAAJ</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Behavioural Neuroendocrinology | Behavioural Ecology | Neuroscience</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>xGL-ao0AAAAJ</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Neurobiology</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>nph1nnIAAAAJ</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>genetics | metabolism | C. elegans | membranes</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>LT35pKEAAAAJ</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>developmental biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>LIcw3QgAAAAJ</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Neuroscience | neuromodulation | respiratory control | development</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>zaiIL4oAAAAJ</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>ecoimmunology | ecological immunology | comparative stress physiology | parasitic manipulation of behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>JR_Dml4AAAAJ</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>cloud physics medical physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>tqzOiyoAAAAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>ImUDvyMAAAAJ</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Vector Biology | Population Genetics/Genomics | Ecology</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>XwfzBI4AAAAJ</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Evolutionary Genetics</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>ICJSbLEAAAAJ</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Pigmentation | Geographic Variation | Carotenoids | Birds</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>esIT6IEAAAAJ</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Sexual Selection</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>OVOrQ4EAAAAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>wdDq5nkAAAAJ</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>PI | Dog Aging Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>4OsbXUcAAAAJ</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Community Ecology | behavioral ecology | conservation ecology</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
